--- a/Data/RatingExample1_Bally.xlsx
+++ b/Data/RatingExample1_Bally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\RFTSeleniumTutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE830A-844E-403D-B2EC-1BBD1BD2B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608B1990-1D1B-4AEC-9586-2BF7B2B2E630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1" sheetId="6" r:id="rId1"/>
@@ -4988,46 +4988,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5036,37 +5009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5087,32 +5030,86 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5129,19 +5126,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12241,10 +12241,10 @@
   <dimension ref="B2:G108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12674,7 +12674,7 @@
         <v>67</v>
       </c>
       <c r="E54" s="70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F54" t="s">
         <v>165</v>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="E104" s="93">
         <f>SUM(E32:E102)/COUNTA(E32:E102)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
@@ -13165,7 +13165,7 @@
       <c r="D106" s="74"/>
       <c r="E106" s="120">
         <f>E104*E25</f>
-        <v>778733.44727272715</v>
+        <v>777571.15854545438</v>
       </c>
       <c r="F106" t="s">
         <v>624</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="E108" s="352">
         <f>+E106/(E22)</f>
-        <v>155746.68945454544</v>
+        <v>155514.23170909088</v>
       </c>
     </row>
   </sheetData>
@@ -31118,24 +31118,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BV11:BZ11"/>
-    <mergeCell ref="AR11:AV11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BJ11:BN11"/>
-    <mergeCell ref="BP11:BT11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="CB11:CF11"/>
-    <mergeCell ref="CH11:CL11"/>
-    <mergeCell ref="CN11:CR11"/>
-    <mergeCell ref="CT11:CX11"/>
-    <mergeCell ref="CZ11:DD11"/>
     <mergeCell ref="EJ11:EN11"/>
     <mergeCell ref="EP11:ET11"/>
     <mergeCell ref="EV11:EZ11"/>
@@ -31144,6 +31126,24 @@
     <mergeCell ref="DR11:DV11"/>
     <mergeCell ref="DX11:EB11"/>
     <mergeCell ref="ED11:EH11"/>
+    <mergeCell ref="CB11:CF11"/>
+    <mergeCell ref="CH11:CL11"/>
+    <mergeCell ref="CN11:CR11"/>
+    <mergeCell ref="CT11:CX11"/>
+    <mergeCell ref="CZ11:DD11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="BV11:BZ11"/>
+    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BJ11:BN11"/>
+    <mergeCell ref="BP11:BT11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39629,11 +39629,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="504"/>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
+      <c r="A1" s="494"/>
+      <c r="B1" s="494"/>
+      <c r="C1" s="494"/>
+      <c r="D1" s="494"/>
+      <c r="E1" s="494"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -39648,13 +39648,13 @@
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
+      <c r="A2" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="504"/>
+      <c r="B2" s="494"/>
+      <c r="C2" s="494"/>
+      <c r="D2" s="494"/>
+      <c r="E2" s="494"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -39669,13 +39669,13 @@
       <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="494" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
+      <c r="B3" s="494"/>
+      <c r="C3" s="494"/>
+      <c r="D3" s="494"/>
+      <c r="E3" s="494"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -39690,406 +39690,406 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="494" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="504" t="s">
+      <c r="A5" s="494" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="529" t="s">
+      <c r="B5" s="494"/>
+      <c r="C5" s="494"/>
+      <c r="D5" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="529"/>
+      <c r="E5" s="495"/>
     </row>
     <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="527" t="s">
+      <c r="A6" s="496" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="528"/>
-      <c r="C6" s="528"/>
-      <c r="D6" s="508" t="s">
+      <c r="B6" s="497"/>
+      <c r="C6" s="497"/>
+      <c r="D6" s="499" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="509"/>
+      <c r="E6" s="500"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="494" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="504"/>
-      <c r="C7" s="504"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="506"/>
+      <c r="B7" s="494"/>
+      <c r="C7" s="494"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
     </row>
     <row r="8" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="527" t="s">
+      <c r="A8" s="496" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="528"/>
-      <c r="C8" s="528"/>
-      <c r="D8" s="508" t="s">
+      <c r="B8" s="497"/>
+      <c r="C8" s="497"/>
+      <c r="D8" s="499" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="509"/>
+      <c r="E8" s="500"/>
     </row>
     <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="504" t="s">
+      <c r="A9" s="494" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="504"/>
-      <c r="C9" s="504"/>
-      <c r="D9" s="505"/>
-      <c r="E9" s="505"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="494"/>
+      <c r="D9" s="501"/>
+      <c r="E9" s="501"/>
     </row>
     <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="521" t="s">
+      <c r="A10" s="502" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="522"/>
-      <c r="C10" s="522"/>
-      <c r="D10" s="513" t="s">
+      <c r="B10" s="503"/>
+      <c r="C10" s="503"/>
+      <c r="D10" s="508" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="514"/>
+      <c r="E10" s="509"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="523" t="s">
+      <c r="A11" s="504" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="524"/>
-      <c r="C11" s="524"/>
-      <c r="D11" s="516" t="s">
+      <c r="B11" s="505"/>
+      <c r="C11" s="505"/>
+      <c r="D11" s="510" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="517"/>
+      <c r="E11" s="511"/>
     </row>
     <row r="12" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="525" t="s">
+      <c r="A12" s="506" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="526"/>
-      <c r="C12" s="526"/>
-      <c r="D12" s="519" t="s">
+      <c r="B12" s="507"/>
+      <c r="C12" s="507"/>
+      <c r="D12" s="512" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="520"/>
+      <c r="E12" s="513"/>
     </row>
     <row r="13" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="504" t="s">
+      <c r="A13" s="494" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="504"/>
-      <c r="C13" s="504"/>
-      <c r="D13" s="505"/>
-      <c r="E13" s="505"/>
+      <c r="B13" s="494"/>
+      <c r="C13" s="494"/>
+      <c r="D13" s="501"/>
+      <c r="E13" s="501"/>
     </row>
     <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="512" t="s">
+      <c r="A14" s="514" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="513"/>
-      <c r="C14" s="513"/>
-      <c r="D14" s="513" t="s">
+      <c r="B14" s="508"/>
+      <c r="C14" s="508"/>
+      <c r="D14" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="514"/>
+      <c r="E14" s="509"/>
     </row>
     <row r="15" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="515" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="516"/>
-      <c r="C15" s="516"/>
-      <c r="D15" s="516" t="s">
+      <c r="B15" s="510"/>
+      <c r="C15" s="510"/>
+      <c r="D15" s="510" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="517"/>
+      <c r="E15" s="511"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="518" t="s">
+      <c r="A16" s="516" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="519"/>
-      <c r="C16" s="519"/>
-      <c r="D16" s="519" t="s">
+      <c r="B16" s="512"/>
+      <c r="C16" s="512"/>
+      <c r="D16" s="512" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="520"/>
+      <c r="E16" s="513"/>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="504" t="s">
+      <c r="A17" s="494" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="504"/>
-      <c r="C17" s="504"/>
-      <c r="D17" s="505"/>
-      <c r="E17" s="505"/>
+      <c r="B17" s="494"/>
+      <c r="C17" s="494"/>
+      <c r="D17" s="501"/>
+      <c r="E17" s="501"/>
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="512" t="s">
+      <c r="A18" s="514" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="513"/>
-      <c r="C18" s="513"/>
-      <c r="D18" s="513" t="s">
+      <c r="B18" s="508"/>
+      <c r="C18" s="508"/>
+      <c r="D18" s="508" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="514"/>
+      <c r="E18" s="509"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="518" t="s">
+      <c r="A19" s="516" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="519"/>
-      <c r="C19" s="519"/>
-      <c r="D19" s="519" t="s">
+      <c r="B19" s="512"/>
+      <c r="C19" s="512"/>
+      <c r="D19" s="512" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="520"/>
+      <c r="E19" s="513"/>
     </row>
     <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="504" t="s">
+      <c r="A20" s="494" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="504"/>
-      <c r="C20" s="504"/>
-      <c r="D20" s="505"/>
-      <c r="E20" s="505"/>
+      <c r="B20" s="494"/>
+      <c r="C20" s="494"/>
+      <c r="D20" s="501"/>
+      <c r="E20" s="501"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="512" t="s">
+      <c r="A21" s="514" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="513"/>
-      <c r="C21" s="513"/>
-      <c r="D21" s="513" t="s">
+      <c r="B21" s="508"/>
+      <c r="C21" s="508"/>
+      <c r="D21" s="508" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="514"/>
+      <c r="E21" s="509"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="515" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="516"/>
-      <c r="C22" s="516"/>
-      <c r="D22" s="516" t="s">
+      <c r="B22" s="510"/>
+      <c r="C22" s="510"/>
+      <c r="D22" s="510" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="517"/>
+      <c r="E22" s="511"/>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="518" t="s">
+      <c r="A23" s="516" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="519"/>
-      <c r="C23" s="519"/>
-      <c r="D23" s="519" t="s">
+      <c r="B23" s="512"/>
+      <c r="C23" s="512"/>
+      <c r="D23" s="512" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="520"/>
+      <c r="E23" s="513"/>
     </row>
     <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="504" t="s">
+      <c r="A24" s="494" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="504"/>
-      <c r="C24" s="504"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="505"/>
+      <c r="B24" s="494"/>
+      <c r="C24" s="494"/>
+      <c r="D24" s="501"/>
+      <c r="E24" s="501"/>
     </row>
     <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="512" t="s">
+      <c r="A25" s="514" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="513"/>
-      <c r="C25" s="513"/>
-      <c r="D25" s="513" t="s">
+      <c r="B25" s="508"/>
+      <c r="C25" s="508"/>
+      <c r="D25" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="514"/>
+      <c r="E25" s="509"/>
     </row>
     <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="515" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="516"/>
-      <c r="C26" s="516"/>
-      <c r="D26" s="516" t="s">
+      <c r="B26" s="510"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="517"/>
+      <c r="E26" s="511"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="518" t="s">
+      <c r="A27" s="516" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="519"/>
-      <c r="C27" s="519"/>
-      <c r="D27" s="519" t="s">
+      <c r="B27" s="512"/>
+      <c r="C27" s="512"/>
+      <c r="D27" s="512" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="520"/>
+      <c r="E27" s="513"/>
     </row>
     <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="504" t="s">
+      <c r="A28" s="494" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="504"/>
-      <c r="C28" s="504"/>
-      <c r="D28" s="505"/>
-      <c r="E28" s="505"/>
+      <c r="B28" s="494"/>
+      <c r="C28" s="494"/>
+      <c r="D28" s="501"/>
+      <c r="E28" s="501"/>
     </row>
     <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="507" t="s">
+      <c r="A29" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="508"/>
-      <c r="C29" s="508"/>
-      <c r="D29" s="508" t="s">
+      <c r="B29" s="499"/>
+      <c r="C29" s="499"/>
+      <c r="D29" s="499" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="509"/>
+      <c r="E29" s="500"/>
     </row>
     <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="504" t="s">
+      <c r="A30" s="494" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="504"/>
-      <c r="C30" s="504"/>
-      <c r="D30" s="506"/>
-      <c r="E30" s="506"/>
+      <c r="B30" s="494"/>
+      <c r="C30" s="494"/>
+      <c r="D30" s="498"/>
+      <c r="E30" s="498"/>
     </row>
     <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="496" t="s">
+      <c r="A31" s="526" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="499">
+      <c r="B31" s="529">
         <v>0</v>
       </c>
-      <c r="C31" s="499"/>
-      <c r="D31" s="510">
+      <c r="C31" s="529"/>
+      <c r="D31" s="520">
         <v>1</v>
       </c>
-      <c r="E31" s="511"/>
+      <c r="E31" s="521"/>
     </row>
     <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="497"/>
-      <c r="B32" s="494">
+      <c r="A32" s="527"/>
+      <c r="B32" s="524">
         <v>0.05</v>
       </c>
-      <c r="C32" s="494"/>
-      <c r="D32" s="500" t="s">
+      <c r="C32" s="524"/>
+      <c r="D32" s="517" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="501"/>
+      <c r="E32" s="518"/>
     </row>
     <row r="33" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="497"/>
-      <c r="B33" s="494">
+      <c r="A33" s="527"/>
+      <c r="B33" s="524">
         <v>0.1</v>
       </c>
-      <c r="C33" s="494"/>
-      <c r="D33" s="500" t="s">
+      <c r="C33" s="524"/>
+      <c r="D33" s="517" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="501"/>
+      <c r="E33" s="518"/>
     </row>
     <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="497"/>
-      <c r="B34" s="494">
+      <c r="A34" s="527"/>
+      <c r="B34" s="524">
         <v>0.15</v>
       </c>
-      <c r="C34" s="494"/>
-      <c r="D34" s="500" t="s">
+      <c r="C34" s="524"/>
+      <c r="D34" s="517" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="501"/>
+      <c r="E34" s="518"/>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="497"/>
-      <c r="B35" s="494">
+      <c r="A35" s="527"/>
+      <c r="B35" s="524">
         <v>0.2</v>
       </c>
-      <c r="C35" s="494"/>
-      <c r="D35" s="500" t="s">
+      <c r="C35" s="524"/>
+      <c r="D35" s="517" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="501"/>
+      <c r="E35" s="518"/>
     </row>
     <row r="36" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="497"/>
-      <c r="B36" s="494">
+      <c r="A36" s="527"/>
+      <c r="B36" s="524">
         <v>0.25</v>
       </c>
-      <c r="C36" s="494"/>
-      <c r="D36" s="500" t="s">
+      <c r="C36" s="524"/>
+      <c r="D36" s="517" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="501"/>
+      <c r="E36" s="518"/>
     </row>
     <row r="37" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="497"/>
-      <c r="B37" s="494">
+      <c r="A37" s="527"/>
+      <c r="B37" s="524">
         <v>0.3</v>
       </c>
-      <c r="C37" s="494"/>
-      <c r="D37" s="500" t="s">
+      <c r="C37" s="524"/>
+      <c r="D37" s="517" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="501"/>
+      <c r="E37" s="518"/>
     </row>
     <row r="38" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="497"/>
-      <c r="B38" s="494">
+      <c r="A38" s="527"/>
+      <c r="B38" s="524">
         <v>0.35</v>
       </c>
-      <c r="C38" s="494"/>
-      <c r="D38" s="500" t="s">
+      <c r="C38" s="524"/>
+      <c r="D38" s="517" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="501"/>
+      <c r="E38" s="518"/>
     </row>
     <row r="39" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="497"/>
-      <c r="B39" s="494">
+      <c r="A39" s="527"/>
+      <c r="B39" s="524">
         <v>0.4</v>
       </c>
-      <c r="C39" s="494"/>
-      <c r="D39" s="500" t="s">
+      <c r="C39" s="524"/>
+      <c r="D39" s="517" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="501"/>
+      <c r="E39" s="518"/>
     </row>
     <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="497"/>
-      <c r="B40" s="494">
+      <c r="A40" s="527"/>
+      <c r="B40" s="524">
         <v>0.45</v>
       </c>
-      <c r="C40" s="494"/>
-      <c r="D40" s="500" t="s">
+      <c r="C40" s="524"/>
+      <c r="D40" s="517" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="501"/>
+      <c r="E40" s="518"/>
     </row>
     <row r="41" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="498"/>
-      <c r="B41" s="495">
+      <c r="A41" s="528"/>
+      <c r="B41" s="525">
         <v>0.5</v>
       </c>
-      <c r="C41" s="495"/>
-      <c r="D41" s="502" t="s">
+      <c r="C41" s="525"/>
+      <c r="D41" s="522" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="503"/>
+      <c r="E41" s="523"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="49"/>
@@ -40099,56 +40099,23 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
@@ -40161,23 +40128,56 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40198,44 +40198,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="538"/>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
+      <c r="A1" s="537"/>
+      <c r="B1" s="537"/>
+      <c r="C1" s="537"/>
+      <c r="D1" s="537"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="538" t="s">
+      <c r="A2" s="537" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
+      <c r="B2" s="537"/>
+      <c r="C2" s="537"/>
+      <c r="D2" s="537"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="537" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
+      <c r="B3" s="537"/>
+      <c r="C3" s="537"/>
+      <c r="D3" s="537"/>
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="539" t="s">
+      <c r="A4" s="538" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="539"/>
-      <c r="C4" s="539"/>
-      <c r="D4" s="539"/>
+      <c r="B4" s="538"/>
+      <c r="C4" s="538"/>
+      <c r="D4" s="538"/>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="545" t="s">
+      <c r="A5" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="545"/>
-      <c r="C5" s="540" t="s">
+      <c r="B5" s="530"/>
+      <c r="C5" s="539" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="540"/>
+      <c r="D5" s="539"/>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
@@ -40308,14 +40308,14 @@
       <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="545" t="s">
+      <c r="A13" s="530" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="545"/>
-      <c r="C13" s="535" t="s">
+      <c r="B13" s="530"/>
+      <c r="C13" s="541" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="535"/>
+      <c r="D13" s="541"/>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
@@ -40348,251 +40348,261 @@
       <c r="D16" s="87"/>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="545" t="s">
+      <c r="A17" s="530" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="545"/>
-      <c r="C17" s="535" t="s">
+      <c r="B17" s="530"/>
+      <c r="C17" s="541" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="535"/>
+      <c r="D17" s="541"/>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="543" t="s">
+      <c r="A18" s="533" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="544"/>
-      <c r="C18" s="533" t="s">
+      <c r="B18" s="534"/>
+      <c r="C18" s="542" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="534"/>
+      <c r="D18" s="543"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="541" t="s">
+      <c r="A19" s="531" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="542"/>
-      <c r="C19" s="532" t="s">
+      <c r="B19" s="532"/>
+      <c r="C19" s="540" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="532"/>
+      <c r="D19" s="540"/>
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="541" t="s">
+      <c r="A20" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="542"/>
-      <c r="C20" s="532" t="s">
+      <c r="B20" s="532"/>
+      <c r="C20" s="540" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="532"/>
+      <c r="D20" s="540"/>
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="541" t="s">
+      <c r="A21" s="531" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="542"/>
-      <c r="C21" s="532" t="s">
+      <c r="B21" s="532"/>
+      <c r="C21" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="532"/>
+      <c r="D21" s="540"/>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="541" t="s">
+      <c r="A22" s="531" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="542"/>
-      <c r="C22" s="532" t="s">
+      <c r="B22" s="532"/>
+      <c r="C22" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="532"/>
+      <c r="D22" s="540"/>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="541" t="s">
+      <c r="A23" s="531" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="542"/>
-      <c r="C23" s="532" t="s">
+      <c r="B23" s="532"/>
+      <c r="C23" s="540" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="532"/>
+      <c r="D23" s="540"/>
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="541" t="s">
+      <c r="A24" s="531" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="542"/>
-      <c r="C24" s="532" t="s">
+      <c r="B24" s="532"/>
+      <c r="C24" s="540" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="532"/>
+      <c r="D24" s="540"/>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="541" t="s">
+      <c r="A25" s="531" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="542"/>
-      <c r="C25" s="532" t="s">
+      <c r="B25" s="532"/>
+      <c r="C25" s="540" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="532"/>
+      <c r="D25" s="540"/>
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="541" t="s">
+      <c r="A26" s="531" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="542"/>
-      <c r="C26" s="532" t="s">
+      <c r="B26" s="532"/>
+      <c r="C26" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="532"/>
+      <c r="D26" s="540"/>
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="536" t="s">
+      <c r="A27" s="535" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="537"/>
-      <c r="C27" s="530" t="s">
+      <c r="B27" s="536"/>
+      <c r="C27" s="544" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="531"/>
+      <c r="D27" s="545"/>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="543" t="s">
+      <c r="A28" s="533" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="544"/>
-      <c r="C28" s="533" t="s">
+      <c r="B28" s="534"/>
+      <c r="C28" s="542" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="534"/>
+      <c r="D28" s="543"/>
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="541" t="s">
+      <c r="A29" s="531" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="542"/>
-      <c r="C29" s="532" t="s">
+      <c r="B29" s="532"/>
+      <c r="C29" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="532"/>
+      <c r="D29" s="540"/>
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="541" t="s">
+      <c r="A30" s="531" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="542"/>
-      <c r="C30" s="532" t="s">
+      <c r="B30" s="532"/>
+      <c r="C30" s="540" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="532"/>
+      <c r="D30" s="540"/>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="541" t="s">
+      <c r="A31" s="531" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="542"/>
-      <c r="C31" s="532" t="s">
+      <c r="B31" s="532"/>
+      <c r="C31" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="532"/>
+      <c r="D31" s="540"/>
     </row>
     <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="541" t="s">
+      <c r="A32" s="531" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="542"/>
-      <c r="C32" s="532" t="s">
+      <c r="B32" s="532"/>
+      <c r="C32" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="532"/>
+      <c r="D32" s="540"/>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="541" t="s">
+      <c r="A33" s="531" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="542"/>
-      <c r="C33" s="532" t="s">
+      <c r="B33" s="532"/>
+      <c r="C33" s="540" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="532"/>
+      <c r="D33" s="540"/>
     </row>
     <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="541" t="s">
+      <c r="A34" s="531" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="542"/>
-      <c r="C34" s="532" t="s">
+      <c r="B34" s="532"/>
+      <c r="C34" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="532"/>
+      <c r="D34" s="540"/>
     </row>
     <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="541" t="s">
+      <c r="A35" s="531" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="542"/>
-      <c r="C35" s="532" t="s">
+      <c r="B35" s="532"/>
+      <c r="C35" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="532"/>
+      <c r="D35" s="540"/>
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="541" t="s">
+      <c r="A36" s="531" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="542"/>
-      <c r="C36" s="532" t="s">
+      <c r="B36" s="532"/>
+      <c r="C36" s="540" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="532"/>
+      <c r="D36" s="540"/>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="541" t="s">
+      <c r="A37" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="542"/>
-      <c r="C37" s="532" t="s">
+      <c r="B37" s="532"/>
+      <c r="C37" s="540" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="532"/>
+      <c r="D37" s="540"/>
     </row>
     <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="541" t="s">
+      <c r="A38" s="531" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="542"/>
-      <c r="C38" s="532" t="s">
+      <c r="B38" s="532"/>
+      <c r="C38" s="540" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="532"/>
+      <c r="D38" s="540"/>
     </row>
     <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="536" t="s">
+      <c r="A39" s="535" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="537"/>
-      <c r="C39" s="530" t="s">
+      <c r="B39" s="536"/>
+      <c r="C39" s="544" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="531"/>
+      <c r="D39" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -40609,30 +40619,20 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40776,7 +40776,7 @@
       </c>
       <c r="P5" s="137">
         <f>+'Step 1'!E104</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="Q5" s="138"/>
     </row>
@@ -42297,7 +42297,7 @@
       </c>
       <c r="C5" s="410">
         <f>'Step 1'!E106</f>
-        <v>778733.44727272715</v>
+        <v>777571.15854545438</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -42377,11 +42377,11 @@
       </c>
       <c r="G10" s="109">
         <f t="shared" ref="G10:G29" si="2">IF(C10="","",$G$34)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H10" s="110">
         <f t="shared" ref="H10:H30" si="3">IF(C10="","",F10*G10)</f>
-        <v>12211.660059356433</v>
+        <v>12193.433701058884</v>
       </c>
       <c r="I10" s="96"/>
       <c r="J10" s="117">
@@ -42390,7 +42390,7 @@
       </c>
       <c r="K10" s="111">
         <f>IF(C10="","",E10/$E$34*$C$5)</f>
-        <v>12211.660059356431</v>
+        <v>12193.433701058884</v>
       </c>
       <c r="L10" s="411"/>
       <c r="N10" s="401"/>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="G11" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H11" s="110">
         <f t="shared" si="3"/>
-        <v>14273.795483685046</v>
+        <v>14252.491311321333</v>
       </c>
       <c r="I11" s="96"/>
       <c r="J11" s="117">
@@ -42436,7 +42436,7 @@
       </c>
       <c r="K11" s="111">
         <f>IF(C11="","",E11/$E$34*$C$5)</f>
-        <v>14273.795483685044</v>
+        <v>14252.491311321335</v>
       </c>
       <c r="L11" s="411"/>
       <c r="N11" s="401"/>
@@ -42468,11 +42468,11 @@
       </c>
       <c r="G12" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H12" s="110">
         <f t="shared" si="3"/>
-        <v>16315.65389484484</v>
+        <v>16291.302172613725</v>
       </c>
       <c r="I12" s="96"/>
       <c r="J12" s="117">
@@ -42481,7 +42481,7 @@
       </c>
       <c r="K12" s="111">
         <f>IF(C12="","",E12/$E$34*$C$5)</f>
-        <v>16315.653894844838</v>
+        <v>16291.302172613725</v>
       </c>
       <c r="L12" s="411"/>
       <c r="N12" s="401"/>
@@ -42513,11 +42513,11 @@
       </c>
       <c r="G13" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H13" s="110">
         <f t="shared" si="3"/>
-        <v>18334.442854095345</v>
+        <v>18307.078014014602</v>
       </c>
       <c r="I13" s="96"/>
       <c r="J13" s="117">
@@ -42526,7 +42526,7 @@
       </c>
       <c r="K13" s="111">
         <f t="shared" ref="K13:K34" si="4">IF(C13="","",E13/$E$34*$C$5)</f>
-        <v>18334.442854095341</v>
+        <v>18307.078014014602</v>
       </c>
       <c r="L13" s="411"/>
       <c r="N13" s="401"/>
@@ -42558,11 +42558,11 @@
       </c>
       <c r="G14" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H14" s="110">
         <f t="shared" si="3"/>
-        <v>20327.432960249604</v>
+        <v>20297.093508070124</v>
       </c>
       <c r="I14" s="96"/>
       <c r="J14" s="117">
@@ -42571,7 +42571,7 @@
       </c>
       <c r="K14" s="111">
         <f t="shared" si="4"/>
-        <v>20327.432960249604</v>
+        <v>20297.093508070124</v>
       </c>
       <c r="L14" s="411"/>
       <c r="N14" s="401"/>
@@ -42603,11 +42603,11 @@
       </c>
       <c r="G15" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H15" s="110">
         <f t="shared" si="3"/>
-        <v>22291.964931743263</v>
+        <v>22258.693342292896</v>
       </c>
       <c r="I15" s="96"/>
       <c r="J15" s="117">
@@ -42616,7 +42616,7 @@
       </c>
       <c r="K15" s="111">
         <f t="shared" si="4"/>
-        <v>22291.96493174326</v>
+        <v>22258.693342292896</v>
       </c>
       <c r="L15" s="411"/>
       <c r="N15" s="401"/>
@@ -42648,11 +42648,11 @@
       </c>
       <c r="G16" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H16" s="110">
         <f t="shared" si="3"/>
-        <v>24225.456389343788</v>
+        <v>24189.29899174775</v>
       </c>
       <c r="I16" s="96"/>
       <c r="J16" s="117">
@@ -42661,7 +42661,7 @@
       </c>
       <c r="K16" s="111">
         <f t="shared" si="4"/>
-        <v>24225.456389343788</v>
+        <v>24189.29899174775</v>
       </c>
       <c r="L16" s="411"/>
       <c r="M16" s="399"/>
@@ -42694,11 +42694,11 @@
       </c>
       <c r="G17" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H17" s="110">
         <f t="shared" si="3"/>
-        <v>26125.408312717958</v>
+        <v>26086.415165982555</v>
       </c>
       <c r="I17" s="96"/>
       <c r="J17" s="117">
@@ -42707,7 +42707,7 @@
       </c>
       <c r="K17" s="111">
         <f t="shared" si="4"/>
-        <v>26125.408312717955</v>
+        <v>26086.415165982555</v>
       </c>
       <c r="L17" s="411"/>
       <c r="N17" s="401"/>
@@ -42739,11 +42739,11 @@
       </c>
       <c r="G18" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H18" s="110">
         <f t="shared" si="3"/>
-        <v>27989.411145954084</v>
+        <v>27947.635905437728</v>
       </c>
       <c r="I18" s="96"/>
       <c r="J18" s="117">
@@ -42752,7 +42752,7 @@
       </c>
       <c r="K18" s="111">
         <f t="shared" si="4"/>
-        <v>27989.41114595408</v>
+        <v>27947.635905437728</v>
       </c>
       <c r="L18" s="411"/>
       <c r="N18" s="401"/>
@@ -42784,11 +42784,11 @@
       </c>
       <c r="G19" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H19" s="110">
         <f t="shared" si="3"/>
-        <v>29815.150529280621</v>
+        <v>29770.650304610048</v>
       </c>
       <c r="I19" s="96"/>
       <c r="J19" s="117">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="K19" s="111">
         <f t="shared" si="4"/>
-        <v>29815.150529280614</v>
+        <v>29770.650304610044</v>
       </c>
       <c r="L19" s="411"/>
       <c r="N19" s="401"/>
@@ -42829,11 +42829,11 @@
       </c>
       <c r="G20" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H20" s="110">
         <f t="shared" si="3"/>
-        <v>31600.412636418267</v>
+        <v>31553.247841438533</v>
       </c>
       <c r="I20" s="96"/>
       <c r="J20" s="117">
@@ -42842,7 +42842,7 @@
       </c>
       <c r="K20" s="111">
         <f t="shared" si="4"/>
-        <v>31600.412636418267</v>
+        <v>31553.247841438537</v>
       </c>
       <c r="L20" s="411"/>
       <c r="N20" s="401"/>
@@ -42874,11 +42874,11 @@
       </c>
       <c r="G21" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H21" s="110">
         <f t="shared" si="3"/>
-        <v>33343.089099271201</v>
+        <v>33293.323294645423</v>
       </c>
       <c r="I21" s="96"/>
       <c r="J21" s="117">
@@ -42887,7 +42887,7 @@
       </c>
       <c r="K21" s="111">
         <f t="shared" si="4"/>
-        <v>33343.089099271201</v>
+        <v>33293.323294645415</v>
       </c>
       <c r="L21" s="411"/>
       <c r="M21" s="77"/>
@@ -42920,11 +42920,11 @@
       </c>
       <c r="G22" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H22" s="110">
         <f t="shared" si="3"/>
-        <v>35041.181504062857</v>
+        <v>34988.881233161264</v>
       </c>
       <c r="I22" s="96"/>
       <c r="J22" s="117">
@@ -42933,7 +42933,7 @@
       </c>
       <c r="K22" s="111">
         <f t="shared" si="4"/>
-        <v>35041.18150406285</v>
+        <v>34988.881233161264</v>
       </c>
       <c r="L22" s="411"/>
       <c r="N22" s="401"/>
@@ -42965,11 +42965,11 @@
       </c>
       <c r="G23" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H23" s="110">
         <f t="shared" si="3"/>
-        <v>36692.805445492144</v>
+        <v>36638.040064230212</v>
       </c>
       <c r="I23" s="99"/>
       <c r="J23" s="117">
@@ -42978,7 +42978,7 @@
       </c>
       <c r="K23" s="111">
         <f t="shared" si="4"/>
-        <v>36692.805445492144</v>
+        <v>36638.040064230212</v>
       </c>
       <c r="L23" s="411"/>
       <c r="N23" s="401"/>
@@ -43010,11 +43010,11 @@
       </c>
       <c r="G24" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H24" s="110">
         <f t="shared" si="3"/>
-        <v>38296.194127887837</v>
+        <v>38239.035629189493</v>
       </c>
       <c r="I24" s="99"/>
       <c r="J24" s="117">
@@ -43023,7 +43023,7 @@
       </c>
       <c r="K24" s="111">
         <f t="shared" si="4"/>
-        <v>38296.194127887837</v>
+        <v>38239.035629189493</v>
       </c>
       <c r="L24" s="411"/>
       <c r="N24" s="401"/>
@@ -43055,11 +43055,11 @@
       </c>
       <c r="G25" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H25" s="110">
         <f t="shared" si="3"/>
-        <v>39849.701504993078</v>
+        <v>39790.224338567714</v>
       </c>
       <c r="I25" s="99"/>
       <c r="J25" s="117">
@@ -43068,7 +43068,7 @@
       </c>
       <c r="K25" s="111">
         <f t="shared" si="4"/>
-        <v>39849.701504993078</v>
+        <v>39790.224338567707</v>
       </c>
       <c r="L25" s="411"/>
       <c r="N25" s="401"/>
@@ -43100,11 +43100,11 @@
       </c>
       <c r="G26" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H26" s="110">
         <f t="shared" si="3"/>
-        <v>41351.804952351646</v>
+        <v>41290.085840482454</v>
       </c>
       <c r="I26" s="99"/>
       <c r="J26" s="117">
@@ -43113,7 +43113,7 @@
       </c>
       <c r="K26" s="111">
         <f t="shared" si="4"/>
-        <v>41351.804952351646</v>
+        <v>41290.085840482461</v>
       </c>
       <c r="L26" s="411"/>
       <c r="N26" s="401"/>
@@ -43145,11 +43145,11 @@
       </c>
       <c r="G27" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="3"/>
-        <v>42801.107468947863</v>
+        <v>42737.225218994201</v>
       </c>
       <c r="I27" s="99"/>
       <c r="J27" s="117">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="K27" s="111">
         <f t="shared" si="4"/>
-        <v>42801.107468947856</v>
+        <v>42737.225218994201</v>
       </c>
       <c r="L27" s="411"/>
       <c r="N27" s="401"/>
@@ -43190,11 +43190,11 @@
       </c>
       <c r="G28" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="3"/>
-        <v>44196.339407155479</v>
+        <v>44130.374721473148</v>
       </c>
       <c r="I28" s="99"/>
       <c r="J28" s="117">
@@ -43203,7 +43203,7 @@
       </c>
       <c r="K28" s="111">
         <f t="shared" si="4"/>
-        <v>44196.339407155479</v>
+        <v>44130.374721473148</v>
       </c>
       <c r="L28" s="411"/>
       <c r="N28" s="401"/>
@@ -43235,11 +43235,11 @@
       </c>
       <c r="G29" s="109">
         <f t="shared" si="2"/>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H29" s="110">
         <f t="shared" si="3"/>
-        <v>227923.93027789606</v>
+        <v>227583.74530733199</v>
       </c>
       <c r="I29" s="99"/>
       <c r="J29" s="117">
@@ -43248,7 +43248,7 @@
       </c>
       <c r="K29" s="111">
         <f t="shared" si="4"/>
-        <v>227923.93027789606</v>
+        <v>227583.74530733202</v>
       </c>
       <c r="L29" s="411"/>
       <c r="N29" s="401"/>
@@ -43280,11 +43280,11 @@
       </c>
       <c r="G30" s="109">
         <f>IF(C30="","",$G$34)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H30" s="110">
         <f t="shared" si="3"/>
-        <v>406050.23573671642</v>
+        <v>405444.19060875109</v>
       </c>
       <c r="I30" s="99"/>
       <c r="J30" s="117">
@@ -43293,7 +43293,7 @@
       </c>
       <c r="K30" s="111">
         <f t="shared" si="4"/>
-        <v>406050.23573671636</v>
+        <v>405444.19060875109</v>
       </c>
       <c r="L30" s="411"/>
       <c r="N30" s="401"/>
@@ -43325,11 +43325,11 @@
       </c>
       <c r="G31" s="109">
         <f>IF(C31="","",$G$34)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H31" s="110">
         <f t="shared" ref="H31:H34" si="8">IF(C31="","",F31*G31)</f>
-        <v>618483.69390909118</v>
+        <v>617560.58391818195</v>
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="117">
@@ -43338,7 +43338,7 @@
       </c>
       <c r="K31" s="111">
         <f t="shared" si="4"/>
-        <v>618483.69390909118</v>
+        <v>617560.58391818206</v>
       </c>
       <c r="L31" s="411"/>
       <c r="N31" s="401"/>
@@ -43374,11 +43374,11 @@
       </c>
       <c r="G32" s="109">
         <f>IF(C32="","",$G$34)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H32" s="110">
         <f t="shared" si="8"/>
-        <v>1046355.658636364</v>
+        <v>1044793.9337727275</v>
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="117">
@@ -43387,7 +43387,7 @@
       </c>
       <c r="K32" s="111">
         <f t="shared" si="4"/>
-        <v>1046355.6586363639</v>
+        <v>1044793.9337727275</v>
       </c>
       <c r="L32" s="411"/>
       <c r="N32" s="401"/>
@@ -43423,11 +43423,11 @@
       </c>
       <c r="G33" s="109">
         <f>IF(C33="","",$G$34)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H33" s="110">
         <f t="shared" si="8"/>
-        <v>2014379.5768181817</v>
+        <v>2011373.0401363631</v>
       </c>
       <c r="I33" s="99"/>
       <c r="J33" s="117">
@@ -43436,7 +43436,7 @@
       </c>
       <c r="K33" s="111">
         <f t="shared" si="4"/>
-        <v>2014379.5768181814</v>
+        <v>2011373.0401363631</v>
       </c>
       <c r="L33" s="411"/>
       <c r="M33" s="94"/>
@@ -43472,11 +43472,11 @@
       </c>
       <c r="G34" s="109">
         <f>IF(C34="","",'Step 1'!E104)</f>
-        <v>1.0151515151515151</v>
+        <v>1.0136363636363634</v>
       </c>
       <c r="H34" s="110">
         <f t="shared" si="8"/>
-        <v>778733.44727272715</v>
+        <v>777571.15854545438</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="117">
@@ -43485,7 +43485,7 @@
       </c>
       <c r="K34" s="111">
         <f t="shared" si="4"/>
-        <v>778733.44727272715</v>
+        <v>777571.15854545438</v>
       </c>
       <c r="L34" s="411"/>
       <c r="N34" s="401"/>
@@ -43524,7 +43524,7 @@
       </c>
       <c r="K36" s="115">
         <f>SUM(K10:K34)</f>
-        <v>5647009.5553588271</v>
+        <v>5638581.1828881418</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -45496,6 +45496,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049293E3573B65444BA5B2C60410ACC2D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8e79ff903909cd495a7ff73184aa56b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be5ddecb-6b30-483b-9ede-60bdbc5c6842" xmlns:ns3="bdbb6394-3ceb-495a-bd0d-2d8a27ddd6a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42045ba9069e5191fc3eeb86a9d0bcf9" ns2:_="" ns3:_="">
     <xsd:import namespace="be5ddecb-6b30-483b-9ede-60bdbc5c6842"/>
@@ -45712,22 +45727,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD7F2B9-E427-4754-A0F1-D50F6BFB708D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9376FC10-5F9F-4721-BE32-2D02E861397A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85AD7EE-3303-46EF-8251-175D7319F12F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45744,21 +45761,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9376FC10-5F9F-4721-BE32-2D02E861397A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD7F2B9-E427-4754-A0F1-D50F6BFB708D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>